--- a/문서/테이블 설계.exel.xlsx
+++ b/문서/테이블 설계.exel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
   <si>
     <t>테이블 설계</t>
   </si>
@@ -32,13 +32,10 @@
     <t>phone</t>
   </si>
   <si>
-    <t>pImg</t>
-  </si>
-  <si>
-    <t>pContents</t>
-  </si>
-  <si>
-    <t>doLike</t>
+    <t>proImg</t>
+  </si>
+  <si>
+    <t>proContents</t>
   </si>
   <si>
     <t>VARCHAR (20)</t>
@@ -53,70 +50,78 @@
     <t>VARCHAR (2000)</t>
   </si>
   <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>회원 아이디</t>
+  </si>
+  <si>
+    <t>회원 비밀번호</t>
+  </si>
+  <si>
+    <t>회원 닉네임</t>
+  </si>
+  <si>
+    <t>회원 전화번호</t>
+  </si>
+  <si>
+    <t>회원 프로필 사진 경로</t>
+  </si>
+  <si>
+    <t>회원 프로필 내용</t>
+  </si>
+  <si>
+    <t>coachingTBL</t>
+  </si>
+  <si>
+    <t>coachNO - PK</t>
+  </si>
+  <si>
+    <t>coach - id FK</t>
+  </si>
+  <si>
+    <t>cfield</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>cImg</t>
+  </si>
+  <si>
+    <t>cTitle</t>
+  </si>
+  <si>
+    <t>basicPrice</t>
+  </si>
+  <si>
+    <t>cContents</t>
+  </si>
+  <si>
     <t>INTEGER (10)</t>
   </si>
   <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>NULL / DEFAULT 0</t>
-  </si>
-  <si>
-    <t>회원 아이디</t>
-  </si>
-  <si>
-    <t>회원 비밀번호</t>
-  </si>
-  <si>
-    <t>회원 닉네임</t>
-  </si>
-  <si>
-    <t>회원 전화번호</t>
-  </si>
-  <si>
-    <t>회원 프로필 사진 경로</t>
-  </si>
-  <si>
-    <t>회원 프로필 내용</t>
-  </si>
-  <si>
-    <t>회원 좋아요 수</t>
-  </si>
-  <si>
-    <t>coachingTBL</t>
-  </si>
-  <si>
-    <t>coach - id FK</t>
-  </si>
-  <si>
-    <t>lang</t>
-  </si>
-  <si>
-    <t>cImg</t>
-  </si>
-  <si>
-    <t>cTitle</t>
-  </si>
-  <si>
-    <t>basicPrice</t>
-  </si>
-  <si>
-    <t>cContents</t>
-  </si>
-  <si>
     <t>FOREIGN KEY</t>
   </si>
   <si>
+    <t>코치 글 번호</t>
+  </si>
+  <si>
     <t>코치 글 작성하는 회원</t>
   </si>
   <si>
-    <t>코치 글 언어 분야</t>
+    <t>코치 글 분야
+( 웹 / 앱 / 임베디드 )</t>
+  </si>
+  <si>
+    <t>코치 글 툴
+( 각 분야 2개씩 6가지 )</t>
   </si>
   <si>
     <t>코치 글 간판
@@ -135,22 +140,31 @@
     <t>projectTBL</t>
   </si>
   <si>
+    <t>projectNO - PK</t>
+  </si>
+  <si>
     <t>leader - id FK</t>
   </si>
   <si>
+    <t>pImg</t>
+  </si>
+  <si>
     <t>pTitle</t>
   </si>
   <si>
     <t>memberCount</t>
   </si>
   <si>
+    <t>pfield</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
-    <t>mapX</t>
-  </si>
-  <si>
-    <t>mapY</t>
+    <t>pContents</t>
+  </si>
+  <si>
+    <t>map</t>
   </si>
   <si>
     <t>kakao</t>
@@ -162,7 +176,7 @@
     <t>VARCHAR (10)</t>
   </si>
   <si>
-    <t>DOUBLE (10, 10)</t>
+    <t>프로젝트 글 번호</t>
   </si>
   <si>
     <t>프로젝트 글
@@ -180,17 +194,19 @@
 ( 리더 포함 )</t>
   </si>
   <si>
+    <t>프로젝트 분야
+( 웹 / 앱 / 임베디드 )</t>
+  </si>
+  <si>
     <t>프로젝트 난이도
-( 초보, 중수, 고수 )</t>
+( 하수, 중수, 고수 )</t>
   </si>
   <si>
     <t>프로젝트 글 내용</t>
   </si>
   <si>
-    <t>모임 위치 경도</t>
-  </si>
-  <si>
-    <t>모임 위치 위도</t>
+    <t>프로젝트 모임
+위치주소</t>
   </si>
   <si>
     <t>카카오톡 오픈채팅 링크</t>
@@ -205,10 +221,13 @@
     <t>res 속성</t>
   </si>
   <si>
-    <t>req - id FK</t>
-  </si>
-  <si>
-    <t>res - id FK</t>
+    <t>requestNO - PK</t>
+  </si>
+  <si>
+    <t>req</t>
+  </si>
+  <si>
+    <t>res</t>
   </si>
   <si>
     <t>rTitle</t>
@@ -232,16 +251,19 @@
     <t>contact</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>reason</t>
   </si>
   <si>
+    <t>INTEGER(10)</t>
+  </si>
+  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
     <t>VARCHAR (5)</t>
+  </si>
+  <si>
+    <t>요청 넘버링</t>
   </si>
   <si>
     <t>요청 하는 회원</t>
@@ -264,8 +286,7 @@
   </si>
   <si>
     <t>현재 요청 상태
-( 대기, 수락, 거절 )
-DEFAULT = 대기</t>
+(대기1, 수락2, 거절3, 완료4)</t>
   </si>
   <si>
     <t>실제 측정 요금</t>
@@ -274,16 +295,17 @@
     <t>연락 수단 링크</t>
   </si>
   <si>
-    <t>결제 수단 링크</t>
-  </si>
-  <si>
-    <t>거절 사유</t>
+    <t>수락 : 공지사항
+거절 : 거절사유</t>
   </si>
   <si>
     <t>reviewTBL</t>
   </si>
   <si>
-    <t>writer - id FK</t>
+    <t>reviewNO</t>
+  </si>
+  <si>
+    <t>writer</t>
   </si>
   <si>
     <t>target - id FK</t>
@@ -295,7 +317,10 @@
     <t>review</t>
   </si>
   <si>
-    <t>INTERGER (1)</t>
+    <t>FLOAT (1)</t>
+  </si>
+  <si>
+    <t>후기 넘버링</t>
   </si>
   <si>
     <t>후기를 작성하는 회원</t>
@@ -308,6 +333,9 @@
   </si>
   <si>
     <t>한줄평 후기</t>
+  </si>
+  <si>
+    <t>후기 작성 시간</t>
   </si>
   <si>
     <t>팀 이름</t>
@@ -577,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -613,29 +641,23 @@
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -779,7 +801,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.86"/>
-    <col customWidth="1" min="2" max="13" width="21.57"/>
+    <col customWidth="1" min="2" max="14" width="21.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="70.5" customHeight="1">
@@ -795,6 +817,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="5"/>
@@ -805,13 +828,14 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" ht="24.0" customHeight="1">
       <c r="A3" s="9"/>
@@ -833,131 +857,129 @@
       <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="H9" s="4"/>
@@ -966,166 +988,190 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" ht="24.0" customHeight="1">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1134,602 +1180,653 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="4"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="12" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="H21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" ht="34.5" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="8"/>
       <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="D26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="E26" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="F26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="J26" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="12" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="G27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="C28" s="12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="C29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="F29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="G29" s="13" t="s">
         <v>85</v>
       </c>
+      <c r="H29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
       <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
     </row>
     <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="A32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" ht="32.25" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="4"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="4"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="12" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="4"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="12" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="4"/>
     </row>
     <row r="37" ht="19.5" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="4"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="4"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="22"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="4"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="60">
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B17:K17"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B17:J17"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:H7 B12:G15 B19:J22 B25:L25 B27:L30 B33:E33 B35:E38 M38">
+  <conditionalFormatting sqref="B4:G7 B12:I15 B19:K22 B25:L25 B27:L30 B33:E33 B35:G38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>iseven(row())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:G14 B19:J21 B27:L29 B35:E37">
+  <conditionalFormatting sqref="B12:I14 B19:K21 B27:L29 B35:G37">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>iseven(row())</formula>
     </cfRule>
@@ -1760,314 +1857,314 @@
   </cols>
   <sheetData>
     <row r="1" ht="70.5" customHeight="1">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25">
         <v>2000.0</v>
       </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" ht="24.0" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="34"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34">
         <v>36785.0</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="35">
         <f t="shared" ref="C5:C19" si="1">B5</f>
         <v>36785</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>0.5416666666666666</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="42"/>
+      <c r="E5" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37" t="str">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="str">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37" t="str">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37" t="str">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37" t="str">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37" t="str">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37" t="str">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37" t="str">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" ht="24.0" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="37" t="str">
+      <c r="A14" s="26"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="28"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="37" t="str">
+      <c r="A15" s="27"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="29"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" ht="24.0" customHeight="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="37" t="str">
+      <c r="A16" s="29"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="31"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="37" t="str">
+      <c r="A17" s="33"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="35"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="37" t="str">
+      <c r="A18" s="26"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="28"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="37" t="str">
+      <c r="A19" s="26"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="28"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="28"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
